--- a/artfynd/A 52132-2022.xlsx
+++ b/artfynd/A 52132-2022.xlsx
@@ -801,10 +801,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>104778356</v>
+        <v>104778214</v>
       </c>
       <c r="B3" t="n">
-        <v>94121</v>
+        <v>77506</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -817,27 +817,26 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>53</v>
+        <v>6425</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
@@ -845,10 +844,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>346597.3486557564</v>
+        <v>346435.7253240386</v>
       </c>
       <c r="R3" t="n">
-        <v>6587540.61948923</v>
+        <v>6587685.342734368</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -895,7 +894,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>Granlåga</t>
+          <t>På tallstam</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -923,10 +922,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>104778248</v>
+        <v>104778226</v>
       </c>
       <c r="B4" t="n">
-        <v>94121</v>
+        <v>90653</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -935,31 +934,30 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>53</v>
+        <v>4364</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
@@ -967,10 +965,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>346635.7879304852</v>
+        <v>346347.7517754274</v>
       </c>
       <c r="R4" t="n">
-        <v>6587418.232812922</v>
+        <v>6587694.528751616</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1013,11 +1011,6 @@
       <c r="AB4" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>På granlåga</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1045,10 +1038,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>104778340</v>
+        <v>104778356</v>
       </c>
       <c r="B5" t="n">
-        <v>73631</v>
+        <v>94121</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1057,30 +1050,31 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6426</v>
+        <v>53</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Kattfotslav</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Felipes leucopellaeus</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Ach.) Frisch &amp; G.Thor</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
@@ -1088,10 +1082,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>346631.1643096056</v>
+        <v>346597.3486557564</v>
       </c>
       <c r="R5" t="n">
-        <v>6587581.049807825</v>
+        <v>6587540.61948923</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1134,6 +1128,11 @@
       <c r="AB5" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>Granlåga</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1161,10 +1160,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>104778308</v>
+        <v>104778248</v>
       </c>
       <c r="B6" t="n">
-        <v>89356</v>
+        <v>94121</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1173,30 +1172,31 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5447</v>
+        <v>53</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
@@ -1204,10 +1204,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>346760.5213297271</v>
+        <v>346635.7879304852</v>
       </c>
       <c r="R6" t="n">
-        <v>6587773.595144214</v>
+        <v>6587418.232812922</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1250,6 +1250,11 @@
       <c r="AB6" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>På granlåga</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1277,10 +1282,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>104778261</v>
+        <v>104778340</v>
       </c>
       <c r="B7" t="n">
-        <v>77506</v>
+        <v>73631</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1289,25 +1294,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6425</v>
+        <v>6426</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Kattfotslav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Felipes leucopellaeus</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Ach.) Frisch &amp; G.Thor</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1320,10 +1325,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>346708.7430858334</v>
+        <v>346631.1643096056</v>
       </c>
       <c r="R7" t="n">
-        <v>6587617.664139647</v>
+        <v>6587581.049807825</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1366,11 +1371,6 @@
       <c r="AB7" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>Rikligt på flera tallstammar i gammal hällmarksskog</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1398,10 +1398,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>104778214</v>
+        <v>104778308</v>
       </c>
       <c r="B8" t="n">
-        <v>77506</v>
+        <v>89356</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1410,25 +1410,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6425</v>
+        <v>5447</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1441,10 +1441,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>346435.7253240386</v>
+        <v>346760.5213297271</v>
       </c>
       <c r="R8" t="n">
-        <v>6587685.342734368</v>
+        <v>6587773.595144214</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1487,11 +1487,6 @@
       <c r="AB8" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>På tallstam</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1519,10 +1514,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>104778295</v>
+        <v>104778261</v>
       </c>
       <c r="B9" t="n">
-        <v>94121</v>
+        <v>77506</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1535,27 +1530,26 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>53</v>
+        <v>6425</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
@@ -1563,10 +1557,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>346760.5213297271</v>
+        <v>346708.7430858334</v>
       </c>
       <c r="R9" t="n">
-        <v>6587773.595144214</v>
+        <v>6587617.664139647</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1613,7 +1607,7 @@
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>Granlåga i källdråg</t>
+          <t>Rikligt på flera tallstammar i gammal hällmarksskog</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1641,10 +1635,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>104778334</v>
+        <v>104778295</v>
       </c>
       <c r="B10" t="n">
-        <v>77506</v>
+        <v>94121</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1657,26 +1651,27 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6425</v>
+        <v>53</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
@@ -1684,10 +1679,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>346631.1643096056</v>
+        <v>346760.5213297271</v>
       </c>
       <c r="R10" t="n">
-        <v>6587581.049807825</v>
+        <v>6587773.595144214</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1734,7 +1729,7 @@
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>På gran</t>
+          <t>Granlåga i källdråg</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1762,10 +1757,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>104778226</v>
+        <v>104778334</v>
       </c>
       <c r="B11" t="n">
-        <v>90653</v>
+        <v>77506</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1774,25 +1769,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>4364</v>
+        <v>6425</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1805,10 +1800,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>346347.7517754274</v>
+        <v>346631.1643096056</v>
       </c>
       <c r="R11" t="n">
-        <v>6587694.528751616</v>
+        <v>6587581.049807825</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1851,6 +1846,11 @@
       <c r="AB11" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>På gran</t>
         </is>
       </c>
       <c r="AD11" t="b">

--- a/artfynd/A 52132-2022.xlsx
+++ b/artfynd/A 52132-2022.xlsx
@@ -801,10 +801,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>104778214</v>
+        <v>104778356</v>
       </c>
       <c r="B3" t="n">
-        <v>77506</v>
+        <v>94121</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -817,26 +817,27 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6425</v>
+        <v>53</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
@@ -844,10 +845,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>346435.7253240386</v>
+        <v>346597.3486557564</v>
       </c>
       <c r="R3" t="n">
-        <v>6587685.342734368</v>
+        <v>6587540.61948923</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -894,7 +895,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>På tallstam</t>
+          <t>Granlåga</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -922,10 +923,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>104778226</v>
+        <v>104778248</v>
       </c>
       <c r="B4" t="n">
-        <v>90653</v>
+        <v>94121</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -934,30 +935,31 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4364</v>
+        <v>53</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
@@ -965,10 +967,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>346347.7517754274</v>
+        <v>346635.7879304852</v>
       </c>
       <c r="R4" t="n">
-        <v>6587694.528751616</v>
+        <v>6587418.232812922</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1011,6 +1013,11 @@
       <c r="AB4" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>På granlåga</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1038,10 +1045,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>104778356</v>
+        <v>104778340</v>
       </c>
       <c r="B5" t="n">
-        <v>94121</v>
+        <v>73631</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1050,31 +1057,30 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>53</v>
+        <v>6426</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Kattfotslav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Felipes leucopellaeus</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(Ach.) Frisch &amp; G.Thor</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
@@ -1082,10 +1088,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>346597.3486557564</v>
+        <v>346631.1643096056</v>
       </c>
       <c r="R5" t="n">
-        <v>6587540.61948923</v>
+        <v>6587581.049807825</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1128,11 +1134,6 @@
       <c r="AB5" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>Granlåga</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1160,10 +1161,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>104778248</v>
+        <v>104778308</v>
       </c>
       <c r="B6" t="n">
-        <v>94121</v>
+        <v>89356</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1172,31 +1173,30 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>53</v>
+        <v>5447</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
@@ -1204,10 +1204,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>346635.7879304852</v>
+        <v>346760.5213297271</v>
       </c>
       <c r="R6" t="n">
-        <v>6587418.232812922</v>
+        <v>6587773.595144214</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1250,11 +1250,6 @@
       <c r="AB6" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>På granlåga</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1282,10 +1277,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>104778340</v>
+        <v>104778261</v>
       </c>
       <c r="B7" t="n">
-        <v>73631</v>
+        <v>77506</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1294,25 +1289,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6426</v>
+        <v>6425</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Kattfotslav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Felipes leucopellaeus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Ach.) Frisch &amp; G.Thor</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1325,10 +1320,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>346631.1643096056</v>
+        <v>346708.7430858334</v>
       </c>
       <c r="R7" t="n">
-        <v>6587581.049807825</v>
+        <v>6587617.664139647</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1371,6 +1366,11 @@
       <c r="AB7" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>Rikligt på flera tallstammar i gammal hällmarksskog</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1398,10 +1398,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>104778308</v>
+        <v>104778214</v>
       </c>
       <c r="B8" t="n">
-        <v>89356</v>
+        <v>77506</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1410,25 +1410,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5447</v>
+        <v>6425</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1441,10 +1441,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>346760.5213297271</v>
+        <v>346435.7253240386</v>
       </c>
       <c r="R8" t="n">
-        <v>6587773.595144214</v>
+        <v>6587685.342734368</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1487,6 +1487,11 @@
       <c r="AB8" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>På tallstam</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1514,10 +1519,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>104778261</v>
+        <v>104778295</v>
       </c>
       <c r="B9" t="n">
-        <v>77506</v>
+        <v>94121</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1530,26 +1535,27 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6425</v>
+        <v>53</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
@@ -1557,10 +1563,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>346708.7430858334</v>
+        <v>346760.5213297271</v>
       </c>
       <c r="R9" t="n">
-        <v>6587617.664139647</v>
+        <v>6587773.595144214</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1607,7 +1613,7 @@
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>Rikligt på flera tallstammar i gammal hällmarksskog</t>
+          <t>Granlåga i källdråg</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1635,10 +1641,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>104778295</v>
+        <v>104778334</v>
       </c>
       <c r="B10" t="n">
-        <v>94121</v>
+        <v>77506</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1651,27 +1657,26 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>53</v>
+        <v>6425</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
@@ -1679,10 +1684,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>346760.5213297271</v>
+        <v>346631.1643096056</v>
       </c>
       <c r="R10" t="n">
-        <v>6587773.595144214</v>
+        <v>6587581.049807825</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1729,7 +1734,7 @@
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>Granlåga i källdråg</t>
+          <t>På gran</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1757,10 +1762,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>104778334</v>
+        <v>104778226</v>
       </c>
       <c r="B11" t="n">
-        <v>77506</v>
+        <v>90653</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1769,25 +1774,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6425</v>
+        <v>4364</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1800,10 +1805,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>346631.1643096056</v>
+        <v>346347.7517754274</v>
       </c>
       <c r="R11" t="n">
-        <v>6587581.049807825</v>
+        <v>6587694.528751616</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1846,11 +1851,6 @@
       <c r="AB11" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>På gran</t>
         </is>
       </c>
       <c r="AD11" t="b">
